--- a/Classeur devis final.xlsx
+++ b/Classeur devis final.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C53C2A8-C2F3-4542-B6DF-4EC28E00E9AD}" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8C22605-5649-4A26-A692-C6B8FE10EC08}" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>Unité</t>
   </si>
@@ -216,6 +216,27 @@
   </si>
   <si>
     <t>Routeur wifi</t>
+  </si>
+  <si>
+    <t>Point d'accès</t>
+  </si>
+  <si>
+    <t>Cutter boite de 36</t>
+  </si>
+  <si>
+    <t>Matériel</t>
+  </si>
+  <si>
+    <t>Scotch</t>
+  </si>
+  <si>
+    <t>Mesure Laser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protège câbles </t>
+  </si>
+  <si>
+    <t>Sécurité</t>
   </si>
 </sst>
 </file>
@@ -292,19 +313,83 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor theme="0" tint="-0.34998626667073579"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -313,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -329,6 +414,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -457,8 +549,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2DBA69AF-70B0-459E-AE1D-ADD6B1073499}" name="Tableau1" displayName="Tableau1" ref="A1:F27" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:F27" xr:uid="{235CE7C0-C28A-489E-A226-67C469CBB080}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2DBA69AF-70B0-459E-AE1D-ADD6B1073499}" name="Tableau1" displayName="Tableau1" ref="A1:F38" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:F38" xr:uid="{235CE7C0-C28A-489E-A226-67C469CBB080}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{256E8B09-033A-4294-86DA-A14DCA278661}" name="Colonne1"/>
     <tableColumn id="2" xr3:uid="{5076C4BA-B48A-45A4-8F47-643945E953D1}" name="Unité" dataDxfId="3"/>
@@ -808,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1184,9 @@
       <c r="E11" s="7">
         <v>10668.460000000001</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="H11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1392,19 +1486,30 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="7">
-        <f>D15+D16+D17+D18+D20+D19+D22+D21+D23+D24</f>
-        <v>17325.890000000003</v>
+      <c r="A25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="1">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1">
+        <v>180</v>
+      </c>
+      <c r="D25" s="9">
+        <f>Tableau1[[#This Row],[Prix (€)]]*Tableau1[[#This Row],[Unité]]</f>
+        <v>7560</v>
       </c>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="17">
+        <f>SUM(D15:D25)</f>
+        <v>24885.890000000003</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="H26" t="s">
         <v>50</v>
       </c>
@@ -1412,54 +1517,152 @@
         <v>64600</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E27" s="4">
-        <f>E25+E11</f>
-        <v>27994.350000000006</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>61</v>
-      </c>
+    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>22.41</v>
+      </c>
+      <c r="D28" s="9">
+        <f>Tableau1[[#This Row],[Prix (€)]]*Tableau1[[#This Row],[Unité]]</f>
+        <v>22.41</v>
+      </c>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="9">
+        <v>6</v>
+      </c>
+      <c r="C29" s="9">
+        <v>14</v>
+      </c>
+      <c r="D29" s="9">
+        <f>Tableau1[[#This Row],[Prix (€)]]*Tableau1[[#This Row],[Unité]]</f>
+        <v>84</v>
+      </c>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="A30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="9">
+        <v>1</v>
+      </c>
+      <c r="C30" s="9">
+        <v>39</v>
+      </c>
+      <c r="D30" s="9">
+        <f>Tableau1[[#This Row],[Prix (€)]]*Tableau1[[#This Row],[Unité]]</f>
+        <v>39</v>
+      </c>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" t="s">
-        <v>60</v>
-      </c>
+      <c r="A31" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="9">
+        <v>340</v>
+      </c>
+      <c r="C31" s="9">
+        <v>20</v>
+      </c>
+      <c r="D31" s="9">
+        <f>Tableau1[[#This Row],[Prix (€)]]*Tableau1[[#This Row],[Unité]]</f>
+        <v>6800</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E33" s="4">
-        <f>L26-E27</f>
-        <v>36605.649999999994</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="9">
+        <v>20</v>
+      </c>
+      <c r="C33" s="9">
+        <v>425</v>
+      </c>
+      <c r="D33" s="9">
+        <v>8500</v>
+      </c>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="18">
+        <f>E26+E11+D33</f>
+        <v>44054.350000000006</v>
+      </c>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D40" s="1"/>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E42" s="4">
+        <f>L26-E37</f>
+        <v>20545.649999999994</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1478,12 +1681,17 @@
     <hyperlink ref="A20" r:id="rId11" location="mpos=2|cd" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="A23" r:id="rId12" xr:uid="{B96178DB-23CE-44CE-AD87-DC6BBE9928EC}"/>
     <hyperlink ref="A24" r:id="rId13" xr:uid="{39117631-CB2E-4ACC-B237-FD52F4FCE4A4}"/>
+    <hyperlink ref="A25" r:id="rId14" xr:uid="{1238FFAC-CFB5-4CB6-B43E-3E608EDBF86A}"/>
+    <hyperlink ref="A28" r:id="rId15" xr:uid="{04C186F9-23EC-4182-8C62-D60F58818440}"/>
+    <hyperlink ref="A29" r:id="rId16" xr:uid="{8363B082-F509-4BC7-89C3-A31F7E379C70}"/>
+    <hyperlink ref="A30" r:id="rId17" xr:uid="{5D3462B2-4C9F-4476-A388-6E2622DC2B7E}"/>
+    <hyperlink ref="A31" r:id="rId18" xr:uid="{8AADFF33-5F58-4CF0-949A-13B0F6F128C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
   <tableParts count="2">
-    <tablePart r:id="rId15"/>
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Classeur devis final.xlsx
+++ b/Classeur devis final.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8C22605-5649-4A26-A692-C6B8FE10EC08}" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{F8C22605-5649-4A26-A692-C6B8FE10EC08}" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{F1233440-46AD-42DE-87B8-4C88F2F21CF9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Unité</t>
   </si>
@@ -83,48 +83,24 @@
     <t>Colonne2</t>
   </si>
   <si>
-    <t>Colonne3</t>
-  </si>
-  <si>
-    <t>Colonne4</t>
-  </si>
-  <si>
-    <t>Colonne5</t>
-  </si>
-  <si>
     <t>MICROSOFT</t>
   </si>
   <si>
-    <t>20m2</t>
-  </si>
-  <si>
     <t>SONY</t>
   </si>
   <si>
     <t>NINTENDO</t>
   </si>
   <si>
-    <t>25m2</t>
-  </si>
-  <si>
     <t>ORANGE</t>
   </si>
   <si>
-    <t>35m2</t>
-  </si>
-  <si>
     <t>YOUTUBE</t>
   </si>
   <si>
-    <t>30m2</t>
-  </si>
-  <si>
     <t>Paul</t>
   </si>
   <si>
-    <t>15m2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Otacos </t>
   </si>
   <si>
@@ -140,9 +116,6 @@
     <t xml:space="preserve">game one </t>
   </si>
   <si>
-    <t>TGS evnment</t>
-  </si>
-  <si>
     <t>CDHG</t>
   </si>
   <si>
@@ -161,9 +134,6 @@
     <t>maquillage</t>
   </si>
   <si>
-    <t>9m2</t>
-  </si>
-  <si>
     <t>Objectif 3D/VR</t>
   </si>
   <si>
@@ -179,9 +149,6 @@
     <t>Nom</t>
   </si>
   <si>
-    <t>location €</t>
-  </si>
-  <si>
     <t>gain €</t>
   </si>
   <si>
@@ -237,6 +204,12 @@
   </si>
   <si>
     <t>Sécurité</t>
+  </si>
+  <si>
+    <t>Taillle m²</t>
+  </si>
+  <si>
+    <t>TGS evenment</t>
   </si>
 </sst>
 </file>
@@ -426,7 +399,10 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -549,15 +525,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2DBA69AF-70B0-459E-AE1D-ADD6B1073499}" name="Tableau1" displayName="Tableau1" ref="A1:F38" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2DBA69AF-70B0-459E-AE1D-ADD6B1073499}" name="Tableau1" displayName="Tableau1" ref="A1:F38" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:F38" xr:uid="{235CE7C0-C28A-489E-A226-67C469CBB080}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{256E8B09-033A-4294-86DA-A14DCA278661}" name="Colonne1"/>
-    <tableColumn id="2" xr3:uid="{5076C4BA-B48A-45A4-8F47-643945E953D1}" name="Unité" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{58E193C1-006A-4CCF-869B-F6820788A527}" name="Prix (€)" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{610ED359-360C-4522-9B16-75A398897939}" name="Total (€)" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{5076C4BA-B48A-45A4-8F47-643945E953D1}" name="Unité" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{58E193C1-006A-4CCF-869B-F6820788A527}" name="Prix (€)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{610ED359-360C-4522-9B16-75A398897939}" name="Total (€)" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{630225A1-9B42-4DAE-947D-C4AE9C6BC017}" name="Total Cumulé"/>
-    <tableColumn id="6" xr3:uid="{292755DD-B77D-4AB0-8E6B-71E8B7EA992D}" name="Colonne2" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{292755DD-B77D-4AB0-8E6B-71E8B7EA992D}" name="Colonne2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -568,11 +544,13 @@
   <autoFilter ref="G1:M26" xr:uid="{0A4BE73F-88B2-43F0-B629-AFAEBAB86287}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{FE4852AA-671D-48BD-90F2-3DA2BD712A0D}" name="Colonne1"/>
-    <tableColumn id="2" xr3:uid="{240C908C-5C8B-4008-A7F0-905968652E50}" name="Colonne2"/>
-    <tableColumn id="3" xr3:uid="{6FF50B1B-8745-4FCE-8B10-2932763A39AE}" name="Colonne3"/>
-    <tableColumn id="4" xr3:uid="{9C612776-07B0-4170-BC4E-3161B165AA71}" name="Colonne4"/>
-    <tableColumn id="5" xr3:uid="{623562C7-CAD6-4581-9258-5456D7D8273E}" name="Colonne5"/>
-    <tableColumn id="6" xr3:uid="{C03B1A76-4657-4757-B668-B96CAD9A9BA6}" name="Colonne6"/>
+    <tableColumn id="2" xr3:uid="{240C908C-5C8B-4008-A7F0-905968652E50}" name="Nom"/>
+    <tableColumn id="3" xr3:uid="{6FF50B1B-8745-4FCE-8B10-2932763A39AE}" name="Taillle m²"/>
+    <tableColumn id="4" xr3:uid="{9C612776-07B0-4170-BC4E-3161B165AA71}" name="gain €"/>
+    <tableColumn id="5" xr3:uid="{623562C7-CAD6-4581-9258-5456D7D8273E}" name="donnation €"/>
+    <tableColumn id="6" xr3:uid="{C03B1A76-4657-4757-B668-B96CAD9A9BA6}" name="Colonne6" dataDxfId="0">
+      <calculatedColumnFormula>Somme</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="7" xr3:uid="{3CF38C52-A68E-4441-AC8F-3F9627CA2A19}" name="Colonne7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -902,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +906,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>21</v>
@@ -936,23 +914,23 @@
       <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
+      <c r="H1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="L1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -965,18 +943,6 @@
       <c r="E2" s="6"/>
       <c r="F2" s="9"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1017,10 +983,10 @@
       <c r="E4" s="11"/>
       <c r="F4" s="9"/>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>2500</v>
@@ -1042,10 +1008,10 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K5">
         <v>1000</v>
@@ -1067,13 +1033,14 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="I6">
+        <v>18</v>
       </c>
       <c r="J6">
-        <v>3000</v>
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>2700</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1092,13 +1059,14 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="H7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7">
-        <v>3000</v>
+        <v>23</v>
+      </c>
+      <c r="I7" s="6">
+        <v>18</v>
+      </c>
+      <c r="J7" s="6">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>2700</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1117,13 +1085,14 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="H8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8">
-        <v>3750</v>
+        <v>24</v>
+      </c>
+      <c r="I8" s="6">
+        <v>18</v>
+      </c>
+      <c r="J8" s="6">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>2700</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1142,13 +1111,14 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="H9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9">
-        <v>5250</v>
+        <v>25</v>
+      </c>
+      <c r="I9" s="6">
+        <v>18</v>
+      </c>
+      <c r="J9" s="6">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>2700</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1167,13 +1137,14 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="H10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10">
-        <v>4500</v>
+        <v>26</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10" s="6">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>1350</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1185,16 +1156,17 @@
         <v>10668.460000000001</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11">
-        <v>2250</v>
+        <v>27</v>
+      </c>
+      <c r="I11" s="6">
+        <v>9</v>
+      </c>
+      <c r="J11" s="6">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>1350</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1205,13 +1177,14 @@
       <c r="E12" s="6"/>
       <c r="F12" s="9"/>
       <c r="H12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12">
-        <v>2250</v>
+        <v>28</v>
+      </c>
+      <c r="I12" s="6">
+        <v>9</v>
+      </c>
+      <c r="J12" s="6">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>1350</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1224,8 +1197,9 @@
       <c r="E13" s="6"/>
       <c r="F13" s="9"/>
       <c r="H13" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J13" s="6"/>
       <c r="K13">
         <v>4000</v>
       </c>
@@ -1240,8 +1214,9 @@
       <c r="E14" s="6"/>
       <c r="F14" s="9"/>
       <c r="H14" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J14" s="6"/>
       <c r="K14">
         <v>3000</v>
       </c>
@@ -1263,8 +1238,9 @@
       <c r="E15" s="6"/>
       <c r="F15" s="9"/>
       <c r="H15" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J15" s="6"/>
       <c r="K15">
         <v>7000</v>
       </c>
@@ -1285,13 +1261,14 @@
       </c>
       <c r="F16" s="9"/>
       <c r="H16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16">
-        <v>3000</v>
+        <v>32</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16" s="6">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>1350</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1310,8 +1287,9 @@
       </c>
       <c r="F17" s="9"/>
       <c r="H17" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="J17" s="6"/>
       <c r="K17">
         <v>3500</v>
       </c>
@@ -1332,8 +1310,9 @@
       </c>
       <c r="F18" s="9"/>
       <c r="H18" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J18" s="6"/>
       <c r="K18">
         <v>1000</v>
       </c>
@@ -1354,8 +1333,9 @@
       </c>
       <c r="F19" s="9"/>
       <c r="H19" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J19" s="6"/>
       <c r="K19">
         <v>3500</v>
       </c>
@@ -1376,18 +1356,19 @@
       </c>
       <c r="F20" s="9"/>
       <c r="H20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20">
-        <v>3750</v>
+        <v>35</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
+      </c>
+      <c r="J20" s="6">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>1350</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B21" s="9">
         <v>40</v>
@@ -1401,18 +1382,19 @@
       </c>
       <c r="F21" s="9"/>
       <c r="H21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21">
-        <v>3000</v>
+        <v>36</v>
+      </c>
+      <c r="I21" s="6">
+        <v>9</v>
+      </c>
+      <c r="J21" s="6">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>1350</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B22" s="9">
         <v>10</v>
@@ -1426,43 +1408,45 @@
       </c>
       <c r="F22" s="9"/>
       <c r="H22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22">
-        <v>4500</v>
+        <v>37</v>
+      </c>
+      <c r="I22" s="6">
+        <v>9</v>
+      </c>
+      <c r="J22" s="6">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>1350</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B23" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="9">
         <v>226.6</v>
       </c>
       <c r="D23" s="9">
         <f>Tableau1[[#This Row],[Prix (€)]]*Tableau1[[#This Row],[Unité]]</f>
-        <v>906.4</v>
+        <v>679.8</v>
       </c>
       <c r="F23" s="9"/>
       <c r="H23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23">
+        <v>38</v>
+      </c>
+      <c r="I23" s="6">
+        <v>9</v>
+      </c>
+      <c r="J23" s="6">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
         <v>1350</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B24" s="9">
         <v>1</v>
@@ -1476,18 +1460,19 @@
       </c>
       <c r="F24" s="9"/>
       <c r="H24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24">
-        <v>3000</v>
+        <v>39</v>
+      </c>
+      <c r="I24" s="6">
+        <v>9</v>
+      </c>
+      <c r="J24" s="6">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>1350</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B25" s="1">
         <v>42</v>
@@ -1505,21 +1490,22 @@
       <c r="D26" s="9"/>
       <c r="E26" s="17">
         <f>SUM(D15:D25)</f>
-        <v>24885.890000000003</v>
+        <v>24659.29</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L26" s="3">
-        <v>64600</v>
+        <f>SUM(J4:K24)</f>
+        <v>48450</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1528,7 +1514,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B28" s="9">
         <v>1</v>
@@ -1544,7 +1530,7 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B29" s="9">
         <v>6</v>
@@ -1560,7 +1546,7 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B30" s="9">
         <v>1</v>
@@ -1576,7 +1562,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B31" s="9">
         <v>340</v>
@@ -1601,7 +1587,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B33" s="9">
         <v>20</v>
@@ -1638,7 +1624,7 @@
       <c r="D37" s="9"/>
       <c r="E37" s="18">
         <f>E26+E11+D33</f>
-        <v>44054.350000000006</v>
+        <v>43827.75</v>
       </c>
       <c r="F37" s="13"/>
     </row>
@@ -1651,7 +1637,7 @@
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
       <c r="E40" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1660,10 +1646,10 @@
     <row r="42" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E42" s="4">
         <f>L26-E37</f>
-        <v>20545.649999999994</v>
+        <v>4622.25</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Classeur devis final.xlsx
+++ b/Classeur devis final.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{F8C22605-5649-4A26-A692-C6B8FE10EC08}" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{F1233440-46AD-42DE-87B8-4C88F2F21CF9}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>Unité</t>
   </si>
@@ -200,9 +199,6 @@
     <t>Mesure Laser</t>
   </si>
   <si>
-    <t xml:space="preserve">Protège câbles </t>
-  </si>
-  <si>
     <t>Sécurité</t>
   </si>
   <si>
@@ -210,6 +206,21 @@
   </si>
   <si>
     <t>TGS evenment</t>
+  </si>
+  <si>
+    <t>Place Visiteur</t>
+  </si>
+  <si>
+    <t>Place Joueur</t>
+  </si>
+  <si>
+    <t>Protège câbles (48 câbles)</t>
+  </si>
+  <si>
+    <t>Totale Bugdet  cablâge :</t>
+  </si>
+  <si>
+    <t>Nombre</t>
   </si>
 </sst>
 </file>
@@ -371,11 +382,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -394,6 +404,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -540,10 +552,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F969A27-DC75-495F-A8FA-1855DFD99542}" name="Tableau2" displayName="Tableau2" ref="G1:M26" totalsRowShown="0">
-  <autoFilter ref="G1:M26" xr:uid="{0A4BE73F-88B2-43F0-B629-AFAEBAB86287}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F969A27-DC75-495F-A8FA-1855DFD99542}" name="Tableau2" displayName="Tableau2" ref="G1:M28" totalsRowShown="0">
+  <autoFilter ref="G1:M28" xr:uid="{0A4BE73F-88B2-43F0-B629-AFAEBAB86287}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FE4852AA-671D-48BD-90F2-3DA2BD712A0D}" name="Colonne1"/>
+    <tableColumn id="1" xr3:uid="{FE4852AA-671D-48BD-90F2-3DA2BD712A0D}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{240C908C-5C8B-4008-A7F0-905968652E50}" name="Nom"/>
     <tableColumn id="3" xr3:uid="{6FF50B1B-8745-4FCE-8B10-2932763A39AE}" name="Taillle m²"/>
     <tableColumn id="4" xr3:uid="{9C612776-07B0-4170-BC4E-3161B165AA71}" name="gain €"/>
@@ -880,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,36 +901,38 @@
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="7" max="13" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>44</v>
@@ -934,32 +948,32 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>1.76</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>17.600000000000001</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -968,20 +982,23 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>44</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>23.4</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>1029.5999999999999</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="8"/>
+      <c r="G4">
+        <v>2</v>
+      </c>
       <c r="H4" s="2" t="s">
         <v>46</v>
       </c>
@@ -993,20 +1010,20 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>124</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>17.02</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>2110.48</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
       <c r="H5" s="2" t="s">
         <v>48</v>
       </c>
@@ -1018,20 +1035,20 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>100</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>21.17</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>2117</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
       <c r="H6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1044,434 +1061,473 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>120</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>25.76</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>3091.2000000000003</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="H7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>18</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
         <v>2700</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>70</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>30.19</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>2113.3000000000002</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
       <c r="H8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>18</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
         <v>2700</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>2</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>42.96</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>85.92</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
       <c r="H9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>18</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
         <v>2700</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>1</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>120.96</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>120.96</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
       <c r="H10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I10">
         <v>9</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
         <v>1350</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7">
+      <c r="A11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6">
         <v>10668.460000000001</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>50</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>9</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
         <v>1350</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="9"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8"/>
       <c r="H12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>9</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
         <v>1350</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8"/>
       <c r="H13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13">
-        <v>4000</v>
-      </c>
+      <c r="I13" s="5">
+        <v>9</v>
+      </c>
+      <c r="J13" s="5">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>1350</v>
+      </c>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8"/>
       <c r="H14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14">
-        <v>3000</v>
-      </c>
+      <c r="I14" s="5">
+        <v>9</v>
+      </c>
+      <c r="J14" s="5">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>1350</v>
+      </c>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>2</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>3216</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <f>Tableau1[[#This Row],[Prix (€)]]*Tableau1[[#This Row],[Unité]]</f>
         <v>6432</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="9"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="8"/>
       <c r="H15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15">
-        <v>7000</v>
-      </c>
+      <c r="I15" s="5">
+        <v>9</v>
+      </c>
+      <c r="J15" s="5">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>1350</v>
+      </c>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>20</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>13.9</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <f>Tableau1[[#This Row],[Prix (€)]]*Tableau1[[#This Row],[Unité]]</f>
         <v>278</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="8"/>
       <c r="H16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I16">
         <v>9</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
         <v>1350</v>
       </c>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>26</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>33.99</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <f>Tableau1[[#This Row],[Prix (€)]]*Tableau1[[#This Row],[Unité]]</f>
         <v>883.74</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="8"/>
       <c r="H17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17">
-        <v>3500</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I17" s="5">
+        <v>9</v>
+      </c>
+      <c r="J17" s="5">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>1350</v>
+      </c>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>20</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>24.99</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <f>Tableau1[[#This Row],[Prix (€)]]*Tableau1[[#This Row],[Unité]]</f>
         <v>499.79999999999995</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="8"/>
       <c r="H18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18">
-        <v>1000</v>
-      </c>
+      <c r="I18" s="5">
+        <v>9</v>
+      </c>
+      <c r="J18" s="5">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>1350</v>
+      </c>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>20</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>35.5</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <f>Tableau1[[#This Row],[Prix (€)]]*Tableau1[[#This Row],[Unité]]</f>
         <v>710</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="8"/>
       <c r="H19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19">
-        <v>3500</v>
-      </c>
+      <c r="I19" s="5">
+        <v>9</v>
+      </c>
+      <c r="J19" s="5">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>1350</v>
+      </c>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>125</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>12.99</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <f>Tableau1[[#This Row],[Prix (€)]]*Tableau1[[#This Row],[Unité]]</f>
         <v>1623.75</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="8"/>
+      <c r="G20">
+        <v>2</v>
+      </c>
       <c r="H20" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I20">
         <v>9</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
         <v>1350</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>40</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>35</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <f>Tableau1[[#This Row],[Prix (€)]]*Tableau1[[#This Row],[Unité]]</f>
         <v>1400</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="8"/>
       <c r="H21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <v>9</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
         <v>1350</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>10</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>446.72</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <f>Tableau1[[#This Row],[Prix (€)]]*Tableau1[[#This Row],[Unité]]</f>
         <v>4467.2000000000007</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="G22">
+        <v>2</v>
+      </c>
       <c r="H22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>9</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
         <v>1350</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>3</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>226.6</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <f>Tableau1[[#This Row],[Prix (€)]]*Tableau1[[#This Row],[Unité]]</f>
         <v>679.8</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="8"/>
+      <c r="G23">
+        <v>3</v>
+      </c>
       <c r="H23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>9</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
         <v>1350</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>1</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>125</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <f>Tableau1[[#This Row],[Prix (€)]]*Tableau1[[#This Row],[Unité]]</f>
         <v>125</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="8"/>
       <c r="H24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>9</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
         <v>1350</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="1">
@@ -1480,159 +1536,183 @@
       <c r="C25" s="1">
         <v>180</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <f>Tableau1[[#This Row],[Prix (€)]]*Tableau1[[#This Row],[Unité]]</f>
         <v>7560</v>
       </c>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D26" s="9"/>
-      <c r="E26" s="17">
+      <c r="F25" s="8"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D26" s="8"/>
+      <c r="E26" s="16">
         <f>SUM(D15:D25)</f>
         <v>24659.29</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="12" t="s">
         <v>50</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-      <c r="L26" s="3">
-        <f>SUM(J4:K24)</f>
-        <v>48450</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="I26">
+        <v>500</v>
+      </c>
+      <c r="J26">
+        <f>10*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>5000</v>
+      </c>
+      <c r="L26" s="19"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="H27" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27">
+        <v>2500</v>
+      </c>
+      <c r="J27">
+        <f>5*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>12500</v>
+      </c>
+      <c r="L27" s="19"/>
+    </row>
+    <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>1</v>
       </c>
       <c r="C28">
         <v>22.41</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <f>Tableau1[[#This Row],[Prix (€)]]*Tableau1[[#This Row],[Unité]]</f>
         <v>22.41</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="8"/>
+      <c r="H28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="20">
+        <f>SUM(J4:K27)</f>
+        <v>52050</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>6</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>14</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <f>Tableau1[[#This Row],[Prix (€)]]*Tableau1[[#This Row],[Unité]]</f>
         <v>84</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>1</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>39</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <f>Tableau1[[#This Row],[Prix (€)]]*Tableau1[[#This Row],[Unité]]</f>
         <v>39</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="9">
+      <c r="A31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="8">
         <v>340</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>20</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <f>Tableau1[[#This Row],[Prix (€)]]*Tableau1[[#This Row],[Unité]]</f>
         <v>6800</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="9">
-        <v>20</v>
-      </c>
-      <c r="C33" s="9">
+        <v>61</v>
+      </c>
+      <c r="B33" s="8">
+        <v>30</v>
+      </c>
+      <c r="C33" s="8">
         <v>425</v>
       </c>
-      <c r="D33" s="9">
-        <v>8500</v>
-      </c>
-      <c r="F33" s="9"/>
+      <c r="D33" s="8">
+        <f>425*Tableau1[[#This Row],[Unité]]</f>
+        <v>12750</v>
+      </c>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="F36" s="14"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="18">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="17">
         <f>E26+E11+D33</f>
-        <v>43827.75</v>
-      </c>
-      <c r="F37" s="13"/>
+        <v>48077.75</v>
+      </c>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="F38" s="19"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
@@ -1644,11 +1724,11 @@
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E42" s="4">
-        <f>L26-E37</f>
-        <v>4622.25</v>
-      </c>
-      <c r="F42" s="4" t="s">
+      <c r="E42" s="3">
+        <f>L28-E37</f>
+        <v>3972.25</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1671,7 +1751,7 @@
     <hyperlink ref="A28" r:id="rId15" xr:uid="{04C186F9-23EC-4182-8C62-D60F58818440}"/>
     <hyperlink ref="A29" r:id="rId16" xr:uid="{8363B082-F509-4BC7-89C3-A31F7E379C70}"/>
     <hyperlink ref="A30" r:id="rId17" xr:uid="{5D3462B2-4C9F-4476-A388-6E2622DC2B7E}"/>
-    <hyperlink ref="A31" r:id="rId18" xr:uid="{8AADFF33-5F58-4CF0-949A-13B0F6F128C6}"/>
+    <hyperlink ref="A31" r:id="rId18" display="Protège câbles " xr:uid="{8AADFF33-5F58-4CF0-949A-13B0F6F128C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>

--- a/Classeur devis final.xlsx
+++ b/Classeur devis final.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{F8C22605-5649-4A26-A692-C6B8FE10EC08}" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{F1233440-46AD-42DE-87B8-4C88F2F21CF9}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{F8C22605-5649-4A26-A692-C6B8FE10EC08}" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{54707756-A9A0-4F5D-A7D3-198A2F4694C3}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -880,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,14 +1449,14 @@
         <v>55</v>
       </c>
       <c r="B24" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="9">
         <v>125</v>
       </c>
       <c r="D24" s="9">
         <f>Tableau1[[#This Row],[Prix (€)]]*Tableau1[[#This Row],[Unité]]</f>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="F24" s="9"/>
       <c r="H24" s="2" t="s">
@@ -1490,7 +1490,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="17">
         <f>SUM(D15:D25)</f>
-        <v>24659.29</v>
+        <v>24784.29</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>50</v>
@@ -1624,7 +1624,7 @@
       <c r="D37" s="9"/>
       <c r="E37" s="18">
         <f>E26+E11+D33</f>
-        <v>43827.75</v>
+        <v>43952.75</v>
       </c>
       <c r="F37" s="13"/>
     </row>
@@ -1646,7 +1646,7 @@
     <row r="42" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E42" s="4">
         <f>L26-E37</f>
-        <v>4622.25</v>
+        <v>4497.25</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>50</v>

--- a/Classeur devis final.xlsx
+++ b/Classeur devis final.xlsx
@@ -1,9 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{F8C22605-5649-4A26-A692-C6B8FE10EC08}" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{54707756-A9A0-4F5D-A7D3-198A2F4694C3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>Unité</t>
   </si>
@@ -210,6 +209,33 @@
   </si>
   <si>
     <t>TGS evenment</t>
+  </si>
+  <si>
+    <t>Place Joueur</t>
+  </si>
+  <si>
+    <t>Place Visiteur</t>
+  </si>
+  <si>
+    <t>Cash Prize</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>Hearthstone</t>
+  </si>
+  <si>
+    <t>PUBG</t>
+  </si>
+  <si>
+    <t>Rocket League</t>
+  </si>
+  <si>
+    <t>Counter Strike</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -371,7 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -394,6 +420,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -525,8 +552,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2DBA69AF-70B0-459E-AE1D-ADD6B1073499}" name="Tableau1" displayName="Tableau1" ref="A1:F38" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:F38" xr:uid="{235CE7C0-C28A-489E-A226-67C469CBB080}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2DBA69AF-70B0-459E-AE1D-ADD6B1073499}" name="Tableau1" displayName="Tableau1" ref="A1:F43" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:F43" xr:uid="{235CE7C0-C28A-489E-A226-67C469CBB080}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{256E8B09-033A-4294-86DA-A14DCA278661}" name="Colonne1"/>
     <tableColumn id="2" xr3:uid="{5076C4BA-B48A-45A4-8F47-643945E953D1}" name="Unité" dataDxfId="4"/>
@@ -540,8 +567,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F969A27-DC75-495F-A8FA-1855DFD99542}" name="Tableau2" displayName="Tableau2" ref="G1:M26" totalsRowShown="0">
-  <autoFilter ref="G1:M26" xr:uid="{0A4BE73F-88B2-43F0-B629-AFAEBAB86287}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F969A27-DC75-495F-A8FA-1855DFD99542}" name="Tableau2" displayName="Tableau2" ref="G1:M28" totalsRowShown="0">
+  <autoFilter ref="G1:M28" xr:uid="{0A4BE73F-88B2-43F0-B629-AFAEBAB86287}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{FE4852AA-671D-48BD-90F2-3DA2BD712A0D}" name="Colonne1"/>
     <tableColumn id="2" xr3:uid="{240C908C-5C8B-4008-A7F0-905968652E50}" name="Nom"/>
@@ -878,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,7 +916,9 @@
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="7" max="13" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1158,6 +1187,9 @@
       <c r="F11" s="9" t="s">
         <v>50</v>
       </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
       <c r="H11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1165,8 +1197,8 @@
         <v>9</v>
       </c>
       <c r="J11" s="6">
-        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
-        <v>1350</v>
+        <f>150*Tableau2[[#This Row],[Taillle m²]]*2</f>
+        <v>2700</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1199,10 +1231,14 @@
       <c r="H13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13">
-        <v>4000</v>
-      </c>
+      <c r="I13" s="6">
+        <v>9</v>
+      </c>
+      <c r="J13" s="6">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>1350</v>
+      </c>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1216,10 +1252,14 @@
       <c r="H14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14">
-        <v>3000</v>
-      </c>
+      <c r="I14" s="6">
+        <v>9</v>
+      </c>
+      <c r="J14" s="6">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>1350</v>
+      </c>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1240,10 +1280,14 @@
       <c r="H15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15">
-        <v>7000</v>
-      </c>
+      <c r="I15" s="6">
+        <v>9</v>
+      </c>
+      <c r="J15" s="6">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>1350</v>
+      </c>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1263,15 +1307,16 @@
       <c r="H16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="6">
         <v>9</v>
       </c>
       <c r="J16" s="6">
         <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
         <v>1350</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>14</v>
       </c>
@@ -1289,12 +1334,16 @@
       <c r="H17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I17" s="6">
+        <v>9</v>
+      </c>
+      <c r="J17" s="6">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>1350</v>
+      </c>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>15</v>
       </c>
@@ -1312,12 +1361,16 @@
       <c r="H18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I18" s="6">
+        <v>9</v>
+      </c>
+      <c r="J18" s="6">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>1350</v>
+      </c>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
@@ -1335,12 +1388,16 @@
       <c r="H19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I19" s="6">
+        <v>9</v>
+      </c>
+      <c r="J19" s="6">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>1350</v>
+      </c>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
@@ -1366,7 +1423,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>52</v>
       </c>
@@ -1392,7 +1449,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
@@ -1407,6 +1464,9 @@
         <v>4467.2000000000007</v>
       </c>
       <c r="F22" s="9"/>
+      <c r="G22">
+        <v>2</v>
+      </c>
       <c r="H22" s="2" t="s">
         <v>37</v>
       </c>
@@ -1414,11 +1474,11 @@
         <v>9</v>
       </c>
       <c r="J22" s="6">
-        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]*2</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>54</v>
       </c>
@@ -1433,6 +1493,9 @@
         <v>679.8</v>
       </c>
       <c r="F23" s="9"/>
+      <c r="G23">
+        <v>3</v>
+      </c>
       <c r="H23" s="2" t="s">
         <v>38</v>
       </c>
@@ -1440,11 +1503,11 @@
         <v>9</v>
       </c>
       <c r="J23" s="6">
-        <f>150*Tableau2[[#This Row],[Taillle m²]]</f>
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <f>150*Tableau2[[#This Row],[Taillle m²]]*3</f>
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>55</v>
       </c>
@@ -1470,7 +1533,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>56</v>
       </c>
@@ -1485,8 +1548,15 @@
         <v>7560</v>
       </c>
       <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G25" s="6"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D26" s="9"/>
       <c r="E26" s="17">
         <f>SUM(D15:D25)</f>
@@ -1495,15 +1565,28 @@
       <c r="F26" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-      <c r="L26" s="3">
-        <f>SUM(J4:K24)</f>
-        <v>48450</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G26" s="6"/>
+      <c r="H26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="6">
+        <v>500</v>
+      </c>
+      <c r="J26" s="6">
+        <f>10*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>5000</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>58</v>
       </c>
@@ -1511,8 +1594,18 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27">
+        <v>2500</v>
+      </c>
+      <c r="J27">
+        <f>5*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>57</v>
       </c>
@@ -1527,8 +1620,16 @@
         <v>22.41</v>
       </c>
       <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="3">
+        <f>SUM(J4:K27)</f>
+        <v>57450</v>
+      </c>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>59</v>
       </c>
@@ -1544,7 +1645,7 @@
       </c>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>60</v>
       </c>
@@ -1560,7 +1661,7 @@
       </c>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>61</v>
       </c>
@@ -1577,7 +1678,7 @@
       <c r="E31" s="15"/>
       <c r="F31" s="14"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1586,11 +1687,11 @@
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B33" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C33" s="9">
         <v>425</v>
@@ -1607,48 +1708,116 @@
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D36" s="9">
+        <v>6000</v>
+      </c>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="18">
-        <f>E26+E11+D33</f>
-        <v>43952.75</v>
-      </c>
-      <c r="F37" s="13"/>
+      <c r="D37" s="9">
+        <v>2600</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="F38" s="19"/>
+      <c r="D38" s="9">
+        <v>500</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9">
+        <v>2100</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D40" s="1"/>
-      <c r="E40" t="s">
+      <c r="A40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9">
+        <v>3800</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9">
+        <f>D36+D37+D38+D39+D40</f>
+        <v>15000</v>
+      </c>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="18">
+        <f>E26+E11+D33+D41</f>
+        <v>58952.75</v>
+      </c>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="F43" s="19"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D45" s="1"/>
+      <c r="E45" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E42" s="4">
-        <f>L26-E37</f>
-        <v>4497.25</v>
-      </c>
-      <c r="F42" s="4" t="s">
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E47" s="4">
+        <f>L28-E42</f>
+        <v>-1502.75</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Classeur devis final.xlsx
+++ b/Classeur devis final.xlsx
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1691,13 +1691,14 @@
         <v>62</v>
       </c>
       <c r="B33" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C33" s="9">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="D33" s="9">
-        <v>8500</v>
+        <f>Tableau1[[#This Row],[Prix (€)]]*Tableau1[[#This Row],[Unité]]</f>
+        <v>8580</v>
       </c>
       <c r="F33" s="9"/>
     </row>
@@ -1793,7 +1794,7 @@
       <c r="D42" s="9"/>
       <c r="E42" s="18">
         <f>E26+E11+D33+D41</f>
-        <v>58952.75</v>
+        <v>59032.75</v>
       </c>
       <c r="F42" s="13"/>
     </row>
@@ -1815,7 +1816,7 @@
     <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E47" s="4">
         <f>L28-E42</f>
-        <v>-1502.75</v>
+        <v>-1582.75</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>50</v>

--- a/Classeur devis final.xlsx
+++ b/Classeur devis final.xlsx
@@ -907,7 +907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>

--- a/Classeur devis final.xlsx
+++ b/Classeur devis final.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>Unité</t>
   </si>
@@ -157,9 +157,6 @@
     <t>cesi</t>
   </si>
   <si>
-    <t xml:space="preserve">GRATUIT </t>
-  </si>
-  <si>
     <t>BDE</t>
   </si>
   <si>
@@ -236,6 +233,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,7 +935,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>21</v>
@@ -947,7 +947,7 @@
         <v>43</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>44</v>
@@ -1014,9 +1014,6 @@
       <c r="H4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
       <c r="K4">
         <v>2500</v>
       </c>
@@ -1037,10 +1034,10 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="H5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="K5">
         <v>1000</v>
@@ -1185,7 +1182,7 @@
         <v>10668.460000000001</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1332,7 +1329,7 @@
       </c>
       <c r="F17" s="9"/>
       <c r="H17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" s="6">
         <v>9</v>
@@ -1425,7 +1422,7 @@
     </row>
     <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="9">
         <v>40</v>
@@ -1451,7 +1448,7 @@
     </row>
     <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="9">
         <v>10</v>
@@ -1480,7 +1477,7 @@
     </row>
     <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="9">
         <v>3</v>
@@ -1509,7 +1506,7 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="9">
         <v>2</v>
@@ -1535,7 +1532,7 @@
     </row>
     <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1">
         <v>42</v>
@@ -1563,11 +1560,11 @@
         <v>24784.29</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I26" s="6">
         <v>500</v>
@@ -1588,14 +1585,14 @@
     </row>
     <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="F27" s="9"/>
       <c r="H27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I27">
         <v>2500</v>
@@ -1607,7 +1604,7 @@
     </row>
     <row r="28" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="9">
         <v>1</v>
@@ -1631,7 +1628,7 @@
     </row>
     <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="9">
         <v>6</v>
@@ -1647,7 +1644,7 @@
     </row>
     <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="9">
         <v>1</v>
@@ -1663,7 +1660,7 @@
     </row>
     <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="9">
         <v>340</v>
@@ -1688,7 +1685,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="9">
         <v>22</v>
@@ -1710,7 +1707,7 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1719,7 +1716,7 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1730,7 +1727,7 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1742,7 +1739,7 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -1754,7 +1751,7 @@
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -1766,7 +1763,7 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -1778,7 +1775,7 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -1807,7 +1804,7 @@
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1819,7 +1816,7 @@
         <v>-1582.75</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Classeur devis final.xlsx
+++ b/Classeur devis final.xlsx
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,8 +1570,8 @@
         <v>500</v>
       </c>
       <c r="J26" s="6">
-        <f>10*Tableau2[[#This Row],[Taillle m²]]</f>
-        <v>5000</v>
+        <f>15*Tableau2[[#This Row],[Taillle m²]]</f>
+        <v>7500</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="20"/>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="L28" s="3">
         <f>SUM(J4:K27)</f>
-        <v>57450</v>
+        <v>59950</v>
       </c>
       <c r="M28" s="6"/>
     </row>
@@ -1813,7 +1813,7 @@
     <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E47" s="4">
         <f>L28-E42</f>
-        <v>-1582.75</v>
+        <v>917.25</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>49</v>
